--- a/GroupSeb/AGARI_HỒ SƠ NV PG GSVN -2020.xlsx
+++ b/GroupSeb/AGARI_HỒ SƠ NV PG GSVN -2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bao Doan\Documents\TakeNotes\GroupSeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bao Doan\Documents\TakeNotes\ManagementProject\GroupSeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1681,9 +1681,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="18" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1695,12 +1692,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1725,6 +1716,15 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2828,7 +2828,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -3302,7 +3302,7 @@
   <dimension ref="A1:AW19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3348,16 +3348,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
       <c r="I1" t="s">
         <v>327</v>
       </c>
@@ -3373,11 +3373,11 @@
       <c r="M1" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
       <c r="Q1" t="s">
         <v>317</v>
       </c>
@@ -3417,23 +3417,23 @@
       <c r="AC1" t="s">
         <v>324</v>
       </c>
-      <c r="AD1" s="49" t="s">
+      <c r="AD1" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
     </row>
     <row r="2" spans="1:49">
       <c r="A2" s="40"/>
@@ -3444,16 +3444,16 @@
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="AD2" s="57" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="AD2" s="54" t="s">
         <v>356</v>
       </c>
-      <c r="AE2" s="57" t="s">
+      <c r="AE2" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="AF2" s="57" t="s">
+      <c r="AF2" s="54" t="s">
         <v>358</v>
       </c>
       <c r="AG2" t="s">
@@ -3465,31 +3465,31 @@
       <c r="AI2" t="s">
         <v>359</v>
       </c>
-      <c r="AJ2" s="57" t="s">
+      <c r="AJ2" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="AK2" s="58" t="s">
+      <c r="AK2" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="AL2" s="57" t="s">
+      <c r="AL2" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="AM2" s="57" t="s">
+      <c r="AM2" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="AN2" s="57" t="s">
+      <c r="AN2" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="AO2" s="57" t="s">
+      <c r="AO2" s="54" t="s">
         <v>366</v>
       </c>
-      <c r="AP2" s="57" t="s">
+      <c r="AP2" s="54" t="s">
         <v>367</v>
       </c>
       <c r="AQ2" t="s">
         <v>371</v>
       </c>
-      <c r="AR2" s="57" t="s">
+      <c r="AR2" s="54" t="s">
         <v>368</v>
       </c>
     </row>
@@ -3533,13 +3533,13 @@
       <c r="M3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="P3" s="47" t="s">
         <v>6</v>
       </c>
       <c r="Q3" s="31" t="s">
@@ -3581,49 +3581,49 @@
       <c r="AC3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AD3" s="51" t="s">
+      <c r="AD3" s="48" t="s">
         <v>369</v>
       </c>
-      <c r="AE3" s="51" t="s">
+      <c r="AE3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AF3" s="52" t="s">
+      <c r="AF3" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="53" t="s">
+      <c r="AG3" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="AH3" s="53" t="s">
+      <c r="AH3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="AI3" s="53" t="s">
+      <c r="AI3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="AJ3" s="53" t="s">
+      <c r="AJ3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="AK3" s="53" t="s">
+      <c r="AK3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AL3" s="53" t="s">
+      <c r="AL3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AM3" s="53" t="s">
+      <c r="AM3" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AN3" s="53" t="s">
+      <c r="AN3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AO3" s="53" t="s">
+      <c r="AO3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AP3" s="53" t="s">
+      <c r="AP3" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AQ3" s="54" t="s">
+      <c r="AQ3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AR3" s="55" t="s">
+      <c r="AR3" s="52" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
         <v>7639</v>
       </c>
       <c r="AU4" s="3" t="str">
-        <f>"INSERT INTO Employee
+        <f t="shared" ref="AU4:AU17" si="0">"INSERT INTO Employee
 (EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
 PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
 )VALUES('"&amp;J4&amp;"', N'"&amp;K4&amp;"', 'PG',"&amp;AS4&amp;",'"&amp;R4&amp;"',N'"&amp;V4&amp;"',N'"&amp;S4&amp;"','"&amp;T4&amp;"',N'"&amp;U4&amp;"',N'"&amp;X4&amp;"',N'"&amp;Y4&amp;"',N'"&amp;W4&amp;"',N'"&amp;Z4&amp;"',N'"&amp;M4&amp;"','"&amp;AC4&amp;"','"&amp;J4&amp;"',7638,N'"&amp;AA4&amp;"',N'"&amp;AB4&amp;"',1,GETDATE()
@@ -3923,11 +3923,7 @@
         <v>7640</v>
       </c>
       <c r="AU5" s="3" t="str">
-        <f>"INSERT INTO Employee
-(EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
-PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
-)VALUES('"&amp;J5&amp;"', N'"&amp;K5&amp;"', 'PG',"&amp;AS5&amp;",'"&amp;R5&amp;"',N'"&amp;V5&amp;"',N'"&amp;S5&amp;"','"&amp;T5&amp;"',N'"&amp;U5&amp;"',N'"&amp;X5&amp;"',N'"&amp;Y5&amp;"',N'"&amp;W5&amp;"',N'"&amp;Z5&amp;"',N'"&amp;M5&amp;"','"&amp;AC5&amp;"','"&amp;J5&amp;"',7638,N'"&amp;AA5&amp;"',N'"&amp;AB5&amp;"',1,GETDATE()
-)"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Employee
 (EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
 PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
@@ -3935,11 +3931,11 @@
 )</v>
       </c>
       <c r="AV5" s="3" t="str">
-        <f t="shared" ref="AV5:AV17" si="0">"INSERT INTO EmployeeAdditional(EmployeeId, LiteracyStatus, Specialize, ContractStatus,SocialInsuranceDate,NumberofSocialInsurance,SocialInsurancePlace,NumberofHouseholdbook,HouseholdName,BirthYearOwner,IdNumberOwner)VALUES("&amp;AT5&amp;",N'"&amp;AD5&amp;"',N'"&amp;AE5&amp;"',N'"&amp;AF5&amp;"','"&amp;AG5&amp;"',N'"&amp;AH5&amp;"',N'"&amp;AI5&amp;"',N'"&amp;AJ5&amp;"',N'"&amp;AK5&amp;"',N'"&amp;AL5&amp;"',N'"&amp;AM5&amp;"')"</f>
+        <f t="shared" ref="AV5:AV17" si="1">"INSERT INTO EmployeeAdditional(EmployeeId, LiteracyStatus, Specialize, ContractStatus,SocialInsuranceDate,NumberofSocialInsurance,SocialInsurancePlace,NumberofHouseholdbook,HouseholdName,BirthYearOwner,IdNumberOwner)VALUES("&amp;AT5&amp;",N'"&amp;AD5&amp;"',N'"&amp;AE5&amp;"',N'"&amp;AF5&amp;"','"&amp;AG5&amp;"',N'"&amp;AH5&amp;"',N'"&amp;AI5&amp;"',N'"&amp;AJ5&amp;"',N'"&amp;AK5&amp;"',N'"&amp;AL5&amp;"',N'"&amp;AM5&amp;"')"</f>
         <v>INSERT INTO EmployeeAdditional(EmployeeId, LiteracyStatus, Specialize, ContractStatus,SocialInsuranceDate,NumberofSocialInsurance,SocialInsurancePlace,NumberofHouseholdbook,HouseholdName,BirthYearOwner,IdNumberOwner)VALUES(7640,N'12/12',N'',N'Chính thức','2020-06-01',N'',N'BV Trưng Vương',N'31100061949',N'Mai Thị Hinh',N'1955',N'020217203')</v>
       </c>
       <c r="AW5" s="3" t="str">
-        <f t="shared" ref="AW5:AW17" si="1">"UPDATE EmployeeAdditional
+        <f t="shared" ref="AW5:AW17" si="2">"UPDATE EmployeeAdditional
 SET
  HouseholdAddress = N'"&amp;AN5&amp;"' ,
  Relationship = N'"&amp;AO5&amp;"',
@@ -4087,11 +4083,7 @@
         <v>7641</v>
       </c>
       <c r="AU6" s="3" t="str">
-        <f>"INSERT INTO Employee
-(EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
-PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
-)VALUES('"&amp;J6&amp;"', N'"&amp;K6&amp;"', 'PG',"&amp;AS6&amp;",'"&amp;R6&amp;"',N'"&amp;V6&amp;"',N'"&amp;S6&amp;"','"&amp;T6&amp;"',N'"&amp;U6&amp;"',N'"&amp;X6&amp;"',N'"&amp;Y6&amp;"',N'"&amp;W6&amp;"',N'"&amp;Z6&amp;"',N'"&amp;M6&amp;"','"&amp;AC6&amp;"','"&amp;J6&amp;"',7638,N'"&amp;AA6&amp;"',N'"&amp;AB6&amp;"',1,GETDATE()
-)"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Employee
 (EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
 PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
@@ -4099,11 +4091,11 @@
 )</v>
       </c>
       <c r="AV6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO EmployeeAdditional(EmployeeId, LiteracyStatus, Specialize, ContractStatus,SocialInsuranceDate,NumberofSocialInsurance,SocialInsurancePlace,NumberofHouseholdbook,HouseholdName,BirthYearOwner,IdNumberOwner)VALUES(7641,N'Cao Đẳng',N'',N'Chính thức','2020-06-01',N'',N'BV Gò Vấp',N'090191036',N'Nguyễn Đỗ Thanh Phúc',N'1971',N'211261856')</v>
       </c>
       <c r="AW6" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE EmployeeAdditional
 SET
  HouseholdAddress = N'113/4 Đống Đa- TT Phú Phong- Huyện Tây Sơn- Tỉnh Bình Định' ,
@@ -4246,11 +4238,7 @@
         <v>7642</v>
       </c>
       <c r="AU7" s="3" t="str">
-        <f>"INSERT INTO Employee
-(EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
-PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
-)VALUES('"&amp;J7&amp;"', N'"&amp;K7&amp;"', 'PG',"&amp;AS7&amp;",'"&amp;R7&amp;"',N'"&amp;V7&amp;"',N'"&amp;S7&amp;"','"&amp;T7&amp;"',N'"&amp;U7&amp;"',N'"&amp;X7&amp;"',N'"&amp;Y7&amp;"',N'"&amp;W7&amp;"',N'"&amp;Z7&amp;"',N'"&amp;M7&amp;"','"&amp;AC7&amp;"','"&amp;J7&amp;"',7638,N'"&amp;AA7&amp;"',N'"&amp;AB7&amp;"',1,GETDATE()
-)"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Employee
 (EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
 PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
@@ -4258,11 +4246,11 @@
 )</v>
       </c>
       <c r="AV7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO EmployeeAdditional(EmployeeId, LiteracyStatus, Specialize, ContractStatus,SocialInsuranceDate,NumberofSocialInsurance,SocialInsurancePlace,NumberofHouseholdbook,HouseholdName,BirthYearOwner,IdNumberOwner)VALUES(7642,N'Trung cấp',N'Điện Lạnh',N'Chính Thức','2020-06-01',N'',N'BV Quận 5',N'31200003290',N'Mai Văn Buông',N'1971',N'022088155')</v>
       </c>
       <c r="AW7" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE EmployeeAdditional
 SET
  HouseholdAddress = N'Tổ 2, KP2, 167/1B Lê Văn Lương, P. Tân Kiểng, Quận 7, TP. HCM ' ,
@@ -4405,11 +4393,7 @@
         <v>7643</v>
       </c>
       <c r="AU8" s="3" t="str">
-        <f>"INSERT INTO Employee
-(EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
-PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
-)VALUES('"&amp;J8&amp;"', N'"&amp;K8&amp;"', 'PG',"&amp;AS8&amp;",'"&amp;R8&amp;"',N'"&amp;V8&amp;"',N'"&amp;S8&amp;"','"&amp;T8&amp;"',N'"&amp;U8&amp;"',N'"&amp;X8&amp;"',N'"&amp;Y8&amp;"',N'"&amp;W8&amp;"',N'"&amp;Z8&amp;"',N'"&amp;M8&amp;"','"&amp;AC8&amp;"','"&amp;J8&amp;"',7638,N'"&amp;AA8&amp;"',N'"&amp;AB8&amp;"',1,GETDATE()
-)"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Employee
 (EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
 PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
@@ -4417,11 +4401,11 @@
 )</v>
       </c>
       <c r="AV8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO EmployeeAdditional(EmployeeId, LiteracyStatus, Specialize, ContractStatus,SocialInsuranceDate,NumberofSocialInsurance,SocialInsurancePlace,NumberofHouseholdbook,HouseholdName,BirthYearOwner,IdNumberOwner)VALUES(7643,N'12/12',N'Công nghệ thực phẩm',N'Chính Thức','2020-06-01',N'',N'BV Quận Bình Tân',N'090283480',N'Lê Thành Mạnh',N'1967',N'211087699')</v>
       </c>
       <c r="AW8" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE EmployeeAdditional
 SET
  HouseholdAddress = N'Quốc lộ 1A, Xã Mỹ Trinh, Huyện Phù Mỹ, Tỉnh Bình Định' ,
@@ -4566,11 +4550,7 @@
         <v>7644</v>
       </c>
       <c r="AU9" s="3" t="str">
-        <f>"INSERT INTO Employee
-(EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
-PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
-)VALUES('"&amp;J9&amp;"', N'"&amp;K9&amp;"', 'PG',"&amp;AS9&amp;",'"&amp;R9&amp;"',N'"&amp;V9&amp;"',N'"&amp;S9&amp;"','"&amp;T9&amp;"',N'"&amp;U9&amp;"',N'"&amp;X9&amp;"',N'"&amp;Y9&amp;"',N'"&amp;W9&amp;"',N'"&amp;Z9&amp;"',N'"&amp;M9&amp;"','"&amp;AC9&amp;"','"&amp;J9&amp;"',7638,N'"&amp;AA9&amp;"',N'"&amp;AB9&amp;"',1,GETDATE()
-)"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Employee
 (EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
 PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
@@ -4578,11 +4558,11 @@
 )</v>
       </c>
       <c r="AV9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO EmployeeAdditional(EmployeeId, LiteracyStatus, Specialize, ContractStatus,SocialInsuranceDate,NumberofSocialInsurance,SocialInsurancePlace,NumberofHouseholdbook,HouseholdName,BirthYearOwner,IdNumberOwner)VALUES(7644,N'Cao Đẳng',N'Quản trị Du Lịch',N'Chính Thức','2020-06-01',N'0',N'TTYT Huyện Thới Lai',N'7036711',N'Trần Hoàng Nam',N'1967',N'361254056')</v>
       </c>
       <c r="AW9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE EmployeeAdditional
 SET
  HouseholdAddress = N'Ấp Trường Ninh 1, Xã Trường Xuân, H. Ô Môn, Tỉnh Cần Thơ' ,
@@ -4725,11 +4705,7 @@
         <v>7645</v>
       </c>
       <c r="AU10" s="3" t="str">
-        <f>"INSERT INTO Employee
-(EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
-PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
-)VALUES('"&amp;J10&amp;"', N'"&amp;K10&amp;"', 'PG',"&amp;AS10&amp;",'"&amp;R10&amp;"',N'"&amp;V10&amp;"',N'"&amp;S10&amp;"','"&amp;T10&amp;"',N'"&amp;U10&amp;"',N'"&amp;X10&amp;"',N'"&amp;Y10&amp;"',N'"&amp;W10&amp;"',N'"&amp;Z10&amp;"',N'"&amp;M10&amp;"','"&amp;AC10&amp;"','"&amp;J10&amp;"',7638,N'"&amp;AA10&amp;"',N'"&amp;AB10&amp;"',1,GETDATE()
-)"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Employee
 (EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
 PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
@@ -4737,11 +4713,11 @@
 )</v>
       </c>
       <c r="AV10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO EmployeeAdditional(EmployeeId, LiteracyStatus, Specialize, ContractStatus,SocialInsuranceDate,NumberofSocialInsurance,SocialInsurancePlace,NumberofHouseholdbook,HouseholdName,BirthYearOwner,IdNumberOwner)VALUES(7645,N'12/12',N'',N'Chính Thức','2020-06-01',N'0',N'BV Hoàn Mỹ Bình Phước',N'100158888',N'Hoàng Văn Môn',N'1972',N'285100104')</v>
       </c>
       <c r="AW10" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE EmployeeAdditional
 SET
  HouseholdAddress = N'Thôn 5, Xã Phước Sơn, H. Bù Đăng, Tỉnh Bình Phước' ,
@@ -4882,11 +4858,7 @@
         <v>7646</v>
       </c>
       <c r="AU11" s="3" t="str">
-        <f>"INSERT INTO Employee
-(EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
-PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
-)VALUES('"&amp;J11&amp;"', N'"&amp;K11&amp;"', 'PG',"&amp;AS11&amp;",'"&amp;R11&amp;"',N'"&amp;V11&amp;"',N'"&amp;S11&amp;"','"&amp;T11&amp;"',N'"&amp;U11&amp;"',N'"&amp;X11&amp;"',N'"&amp;Y11&amp;"',N'"&amp;W11&amp;"',N'"&amp;Z11&amp;"',N'"&amp;M11&amp;"','"&amp;AC11&amp;"','"&amp;J11&amp;"',7638,N'"&amp;AA11&amp;"',N'"&amp;AB11&amp;"',1,GETDATE()
-)"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Employee
 (EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
 PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
@@ -4894,11 +4866,11 @@
 )</v>
       </c>
       <c r="AV11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO EmployeeAdditional(EmployeeId, LiteracyStatus, Specialize, ContractStatus,SocialInsuranceDate,NumberofSocialInsurance,SocialInsurancePlace,NumberofHouseholdbook,HouseholdName,BirthYearOwner,IdNumberOwner)VALUES(7646,N'12/12',N'',N'Chính Thức','2020-06-01',N'',N'BV Quận 6',N'31060079208',N'Lại Thị Ngọc Linh',N'1975',N'022814641')</v>
       </c>
       <c r="AW11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE EmployeeAdditional
 SET
  HouseholdAddress = N'350/3 Bis Nguyễn Duy, Phuo7gn2 15, Quận 8, Tp. HCM' ,
@@ -5041,11 +5013,7 @@
         <v>7656</v>
       </c>
       <c r="AU12" s="3" t="str">
-        <f>"INSERT INTO Employee
-(EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
-PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
-)VALUES('"&amp;J12&amp;"', N'"&amp;K12&amp;"', 'PG',"&amp;AS12&amp;",'"&amp;R12&amp;"',N'"&amp;V12&amp;"',N'"&amp;S12&amp;"','"&amp;T12&amp;"',N'"&amp;U12&amp;"',N'"&amp;X12&amp;"',N'"&amp;Y12&amp;"',N'"&amp;W12&amp;"',N'"&amp;Z12&amp;"',N'"&amp;M12&amp;"','"&amp;AC12&amp;"','"&amp;J12&amp;"',7638,N'"&amp;AA12&amp;"',N'"&amp;AB12&amp;"',1,GETDATE()
-)"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Employee
 (EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
 PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
@@ -5053,11 +5021,11 @@
 )</v>
       </c>
       <c r="AV12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO EmployeeAdditional(EmployeeId, LiteracyStatus, Specialize, ContractStatus,SocialInsuranceDate,NumberofSocialInsurance,SocialInsurancePlace,NumberofHouseholdbook,HouseholdName,BirthYearOwner,IdNumberOwner)VALUES(7656,N'12/12',N'',N'Chính Thức','2020-06-01',N'8223487911',N'BV Quận Thủ Đức',N'590047303',N'Đỗ Văn Thanh',N'1968',N'310700502')</v>
       </c>
       <c r="AW12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE EmployeeAdditional
 SET
  HouseholdAddress = N'Ấp Cả Thu 1, Xã Phú Thạnh, Huyện Tân Phú Đông, Tỉnh Tiền Giang' ,
@@ -5200,11 +5168,7 @@
         <v>7657</v>
       </c>
       <c r="AU13" s="3" t="str">
-        <f>"INSERT INTO Employee
-(EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
-PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
-)VALUES('"&amp;J13&amp;"', N'"&amp;K13&amp;"', 'PG',"&amp;AS13&amp;",'"&amp;R13&amp;"',N'"&amp;V13&amp;"',N'"&amp;S13&amp;"','"&amp;T13&amp;"',N'"&amp;U13&amp;"',N'"&amp;X13&amp;"',N'"&amp;Y13&amp;"',N'"&amp;W13&amp;"',N'"&amp;Z13&amp;"',N'"&amp;M13&amp;"','"&amp;AC13&amp;"','"&amp;J13&amp;"',7638,N'"&amp;AA13&amp;"',N'"&amp;AB13&amp;"',1,GETDATE()
-)"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Employee
 (EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
 PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
@@ -5212,11 +5176,11 @@
 )</v>
       </c>
       <c r="AV13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO EmployeeAdditional(EmployeeId, LiteracyStatus, Specialize, ContractStatus,SocialInsuranceDate,NumberofSocialInsurance,SocialInsurancePlace,NumberofHouseholdbook,HouseholdName,BirthYearOwner,IdNumberOwner)VALUES(7657,N'12/12',N'',N'Chính Thức','2020-06-01',N'7516173603',N'BV Quận 3',N'31050008802',N'Trần Thị Nhị',N'1947',N'020587382')</v>
       </c>
       <c r="AW13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE EmployeeAdditional
 SET
  HouseholdAddress = N'977B Lò Gốm, , Phường 8, Quận 6, TP.HCM' ,
@@ -5345,11 +5309,7 @@
         <v>7658</v>
       </c>
       <c r="AU14" s="3" t="str">
-        <f>"INSERT INTO Employee
-(EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
-PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
-)VALUES('"&amp;J14&amp;"', N'"&amp;K14&amp;"', 'PG',"&amp;AS14&amp;",'"&amp;R14&amp;"',N'"&amp;V14&amp;"',N'"&amp;S14&amp;"','"&amp;T14&amp;"',N'"&amp;U14&amp;"',N'"&amp;X14&amp;"',N'"&amp;Y14&amp;"',N'"&amp;W14&amp;"',N'"&amp;Z14&amp;"',N'"&amp;M14&amp;"','"&amp;AC14&amp;"','"&amp;J14&amp;"',7638,N'"&amp;AA14&amp;"',N'"&amp;AB14&amp;"',1,GETDATE()
-)"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Employee
 (EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
 PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
@@ -5357,11 +5317,11 @@
 )</v>
       </c>
       <c r="AV14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO EmployeeAdditional(EmployeeId, LiteracyStatus, Specialize, ContractStatus,SocialInsuranceDate,NumberofSocialInsurance,SocialInsurancePlace,NumberofHouseholdbook,HouseholdName,BirthYearOwner,IdNumberOwner)VALUES(7658,N'12/12',N'',N'Chính thức','2020-06-01',N'7911382715',N'',N'',N'',N'',N'')</v>
       </c>
       <c r="AW14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE EmployeeAdditional
 SET
  HouseholdAddress = N'' ,
@@ -5492,11 +5452,7 @@
         <v>7659</v>
       </c>
       <c r="AU15" s="3" t="str">
-        <f>"INSERT INTO Employee
-(EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
-PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
-)VALUES('"&amp;J15&amp;"', N'"&amp;K15&amp;"', 'PG',"&amp;AS15&amp;",'"&amp;R15&amp;"',N'"&amp;V15&amp;"',N'"&amp;S15&amp;"','"&amp;T15&amp;"',N'"&amp;U15&amp;"',N'"&amp;X15&amp;"',N'"&amp;Y15&amp;"',N'"&amp;W15&amp;"',N'"&amp;Z15&amp;"',N'"&amp;M15&amp;"','"&amp;AC15&amp;"','"&amp;J15&amp;"',7638,N'"&amp;AA15&amp;"',N'"&amp;AB15&amp;"',1,GETDATE()
-)"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Employee
 (EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
 PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
@@ -5504,11 +5460,11 @@
 )</v>
       </c>
       <c r="AV15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO EmployeeAdditional(EmployeeId, LiteracyStatus, Specialize, ContractStatus,SocialInsuranceDate,NumberofSocialInsurance,SocialInsurancePlace,NumberofHouseholdbook,HouseholdName,BirthYearOwner,IdNumberOwner)VALUES(7659,N'Trung cấp',N'Quản lý du lịch -  nhà hàng khách sạn',N'Chính thức','2020-06-01',N'7911291968',N'',N'',N'',N'',N'')</v>
       </c>
       <c r="AW15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE EmployeeAdditional
 SET
  HouseholdAddress = N'' ,
@@ -5639,11 +5595,7 @@
         <v>7660</v>
       </c>
       <c r="AU16" s="3" t="str">
-        <f>"INSERT INTO Employee
-(EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
-PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
-)VALUES('"&amp;J16&amp;"', N'"&amp;K16&amp;"', 'PG',"&amp;AS16&amp;",'"&amp;R16&amp;"',N'"&amp;V16&amp;"',N'"&amp;S16&amp;"','"&amp;T16&amp;"',N'"&amp;U16&amp;"',N'"&amp;X16&amp;"',N'"&amp;Y16&amp;"',N'"&amp;W16&amp;"',N'"&amp;Z16&amp;"',N'"&amp;M16&amp;"','"&amp;AC16&amp;"','"&amp;J16&amp;"',7638,N'"&amp;AA16&amp;"',N'"&amp;AB16&amp;"',1,GETDATE()
-)"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Employee
 (EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
 PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
@@ -5651,11 +5603,11 @@
 )</v>
       </c>
       <c r="AV16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO EmployeeAdditional(EmployeeId, LiteracyStatus, Specialize, ContractStatus,SocialInsuranceDate,NumberofSocialInsurance,SocialInsurancePlace,NumberofHouseholdbook,HouseholdName,BirthYearOwner,IdNumberOwner)VALUES(7660,N'Trung cấp',N'Tài chính kế toán',N'Chính thức','2020-06-01',N'7911053693',N'',N'',N'',N'',N'')</v>
       </c>
       <c r="AW16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE EmployeeAdditional
 SET
  HouseholdAddress = N'' ,
@@ -5796,11 +5748,7 @@
         <v>7661</v>
       </c>
       <c r="AU17" s="3" t="str">
-        <f>"INSERT INTO Employee
-(EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
-PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
-)VALUES('"&amp;J17&amp;"', N'"&amp;K17&amp;"', 'PG',"&amp;AS17&amp;",'"&amp;R17&amp;"',N'"&amp;V17&amp;"',N'"&amp;S17&amp;"','"&amp;T17&amp;"',N'"&amp;U17&amp;"',N'"&amp;X17&amp;"',N'"&amp;Y17&amp;"',N'"&amp;W17&amp;"',N'"&amp;Z17&amp;"',N'"&amp;M17&amp;"','"&amp;AC17&amp;"','"&amp;J17&amp;"',7638,N'"&amp;AA17&amp;"',N'"&amp;AB17&amp;"',1,GETDATE()
-)"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Employee
 (EmployeeCode,EmployeeName,Position,Sex,BirthDay,BirthPlace,IdNumber,IdDate,IdPlace,Domicile,
 PermanentResidense,MarriedStatus,Nation,Mobile,Email,UserName,ParentId,AccountBank,BankBrand,AccountId,CreatedDate
@@ -5808,11 +5756,11 @@
 )</v>
       </c>
       <c r="AV17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO EmployeeAdditional(EmployeeId, LiteracyStatus, Specialize, ContractStatus,SocialInsuranceDate,NumberofSocialInsurance,SocialInsurancePlace,NumberofHouseholdbook,HouseholdName,BirthYearOwner,IdNumberOwner)VALUES(7661,N'12/12',N'',N'Chính Thức','2020-06-01',N'7913188562',N'',N'170042467',N'Nguyễn Văn Ihử',N'1963',N'245194642')</v>
       </c>
       <c r="AW17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE EmployeeAdditional
 SET
  HouseholdAddress = N'Thôn 6, Xã Kiến Thành, H. Đăk R'Lấp - Tỉnh Đăk Nông' ,
@@ -6019,17 +5967,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="25.5">
       <c r="A2" s="2" t="s">
@@ -6257,7 +6205,7 @@
       <c r="D8" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="44" t="s">
         <v>301</v>
       </c>
       <c r="F8" s="37" t="s">
@@ -6293,7 +6241,7 @@
       <c r="D9" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>301</v>
       </c>
       <c r="F9" s="37" t="s">
@@ -6530,7 +6478,7 @@
 ) VALUES(N'HCM',1031,'MT','B_D..301',N'Emart Phan Văn Trị',N'366 Phan Văn Trị, Phường 5, Gò Vấp, Hồ Chí Minh',0)</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="39.4">
+    <row r="16" spans="1:10" ht="26.25">
       <c r="A16" s="4">
         <f>IF(E16&lt;&gt;"",COUNTA($E$3:E16),"")</f>
         <v>14</v>
@@ -6943,18 +6891,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7181,14 +7129,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69265E9B-D972-4BE8-B584-B6285A7C6818}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AFCFC74-6FAF-42E3-A87A-53EDAEC784F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="4ff474dd-ed34-46f0-b3b0-540076233e0b"/>
@@ -7201,6 +7141,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69265E9B-D972-4BE8-B584-B6285A7C6818}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
